--- a/results/results_etwfe_pt.xlsx
+++ b/results/results_etwfe_pt.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +510,7 @@
         <v>-0.001281560914667025</v>
       </c>
       <c r="D7">
-        <v>1.100033922895698E-08</v>
+        <v>1.100033922895698e-08</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         <v>0.002562103072810605</v>
       </c>
       <c r="D10">
-        <v>3.521628532201482E-09</v>
+        <v>3.521628532201482e-09</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         <v>0.003485515222760219</v>
       </c>
       <c r="D11">
-        <v>6.085106588447755E-16</v>
+        <v>6.085106588447755e-16</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         <v>0.0005543036899752552</v>
       </c>
       <c r="B12">
-        <v>-6.468454216529982E-06</v>
+        <v>-6.468454216529982e-06</v>
       </c>
       <c r="C12">
         <v>0.00111507583416704</v>
@@ -642,7 +642,7 @@
         <v>0.002246684681866365</v>
       </c>
       <c r="D13">
-        <v>9.852615914337455E-08</v>
+        <v>9.852615914337455e-08</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>0.005613926739608115</v>
       </c>
       <c r="D14">
-        <v>9.073252446842488E-26</v>
+        <v>9.073252446842488e-26</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         <v>0.001829126023505476</v>
       </c>
       <c r="D17">
-        <v>2.792423751526912E-05</v>
+        <v>2.792423751526912e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>0.0006220301651129858</v>
       </c>
       <c r="B18">
-        <v>7.137976042821854E-05</v>
+        <v>7.137976042821854e-05</v>
       </c>
       <c r="C18">
         <v>0.001172680569797753</v>
@@ -765,16 +765,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.002120717539626484</v>
+        <v>0.003201882790218088</v>
       </c>
       <c r="B19">
-        <v>0.001907031999505489</v>
+        <v>-0.004704545884604188</v>
       </c>
       <c r="C19">
-        <v>0.00233440307974748</v>
+        <v>0.01110831146504036</v>
       </c>
       <c r="D19">
-        <v>1.727767437034988E-06</v>
+        <v>0.3455653971588564</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.002344776770651758</v>
+        <v>0.003128102886208558</v>
       </c>
       <c r="B20">
-        <v>0.002155644799132348</v>
+        <v>0.002785737724108197</v>
       </c>
       <c r="C20">
-        <v>0.002533908742171168</v>
+        <v>0.003470468048308919</v>
       </c>
       <c r="D20">
-        <v>5.713382062295631E-07</v>
+        <v>2.604898751741652e-06</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.002981633203307663</v>
+        <v>0.01313467805884648</v>
       </c>
       <c r="B21">
-        <v>0.001743942483941677</v>
+        <v>0.007813857335335791</v>
       </c>
       <c r="C21">
-        <v>0.00421932392267365</v>
+        <v>0.01845549878235718</v>
       </c>
       <c r="D21">
-        <v>0.001601980751136001</v>
+        <v>0.001434864839799239</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -831,16 +831,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.00086005669940458</v>
+        <v>-0.001051804401774539</v>
       </c>
       <c r="B22">
-        <v>-0.001249973200045993</v>
+        <v>-0.001124480857475652</v>
       </c>
       <c r="C22">
-        <v>-0.0004701401987631673</v>
+        <v>-0.0009791279460734264</v>
       </c>
       <c r="D22">
-        <v>0.01092085133847414</v>
+        <v>0.0002577964636847358</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0003786768696167913</v>
+        <v>0.0009755391409206791</v>
       </c>
       <c r="B23">
-        <v>-1.605047075318761E-05</v>
+        <v>-0.0003416693423522186</v>
       </c>
       <c r="C23">
-        <v>0.0007734042099867703</v>
+        <v>0.002292747624193577</v>
       </c>
       <c r="D23">
-        <v>0.05883817890818341</v>
+        <v>0.1352860658505839</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -875,16 +875,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.0003892259875492232</v>
+        <v>0.0002677657456220526</v>
       </c>
       <c r="B24">
-        <v>-0.0007489297823064854</v>
+        <v>-0.0005565485439862768</v>
       </c>
       <c r="C24">
-        <v>-2.952219279196103E-05</v>
+        <v>0.001092080035230382</v>
       </c>
       <c r="D24">
-        <v>0.03577981913719705</v>
+        <v>0.4992849751390539</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -897,16 +897,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.00039659362086872</v>
+        <v>0.001124573051503458</v>
       </c>
       <c r="B25">
-        <v>-5.745921985086185E-05</v>
+        <v>0.0008669177671289869</v>
       </c>
       <c r="C25">
-        <v>0.0008506464615883018</v>
+        <v>0.001382228335877929</v>
       </c>
       <c r="D25">
-        <v>0.08235217386911511</v>
+        <v>1.281585620757429e-07</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -919,16 +919,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.002098379644654858</v>
+        <v>0.001272331837096168</v>
       </c>
       <c r="B26">
-        <v>0.00185530723175855</v>
+        <v>0.0004703054879202276</v>
       </c>
       <c r="C26">
-        <v>0.002341452057551165</v>
+        <v>0.002074358186272108</v>
       </c>
       <c r="D26">
-        <v>1.052155102784908E-11</v>
+        <v>0.004112387636887766</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -941,16 +941,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.001107079739808498</v>
+        <v>0.001013316642950241</v>
       </c>
       <c r="B27">
-        <v>0.0006976803331661615</v>
+        <v>0.0002586126793798734</v>
       </c>
       <c r="C27">
-        <v>0.001516479146450834</v>
+        <v>0.001768020606520609</v>
       </c>
       <c r="D27">
-        <v>3.74158053648401E-05</v>
+        <v>0.01187873011878892</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -963,16 +963,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.0004843087171181077</v>
+        <v>0.0005721535547637483</v>
       </c>
       <c r="B28">
-        <v>-0.0001326849092713466</v>
+        <v>-0.0003750092354187384</v>
       </c>
       <c r="C28">
-        <v>0.001101302343507562</v>
+        <v>0.001519316344946235</v>
       </c>
       <c r="D28">
-        <v>0.1150326617064905</v>
+        <v>0.2174154321333722</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -985,16 +985,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.000613126837530982</v>
+        <v>0.001298443183470776</v>
       </c>
       <c r="B29">
-        <v>0.0001452734245251153</v>
+        <v>0.0002011479042488941</v>
       </c>
       <c r="C29">
-        <v>0.001080980250536849</v>
+        <v>0.002395738462692657</v>
       </c>
       <c r="D29">
-        <v>0.01364322724090721</v>
+        <v>0.02345552134258915</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.001118011971212223</v>
+        <v>0.001236766121168052</v>
       </c>
       <c r="B30">
-        <v>0.0005974921775051515</v>
+        <v>0.0004095622220276428</v>
       </c>
       <c r="C30">
-        <v>0.001638531764919295</v>
+        <v>0.00206397002030846</v>
       </c>
       <c r="D30">
-        <v>0.0003623987718087587</v>
+        <v>0.006127636297902322</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.00103245655966931</v>
+        <v>-0.000373358174113475</v>
       </c>
       <c r="B31">
-        <v>0.0005676385168816194</v>
+        <v>-0.0010883021945826</v>
       </c>
       <c r="C31">
-        <v>0.001497274602457001</v>
+        <v>0.0003415858463556499</v>
       </c>
       <c r="D31">
-        <v>0.0002660685121814955</v>
+        <v>0.2831916412955685</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0004303685602558456</v>
+        <v>0.001490246310254697</v>
       </c>
       <c r="B32">
-        <v>-1.197860810619035E-05</v>
+        <v>0.00105779632957098</v>
       </c>
       <c r="C32">
-        <v>0.0008727157286178816</v>
+        <v>0.001922696290938413</v>
       </c>
       <c r="D32">
-        <v>0.05573795382458581</v>
+        <v>2.425092532172927e-06</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1073,60 +1073,60 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.0007824941917932448</v>
+        <v>0.0008271930973533354</v>
       </c>
       <c r="B33">
-        <v>-0.001187073472413785</v>
+        <v>0.0002284955728160005</v>
       </c>
       <c r="C33">
-        <v>-0.0003779149111727048</v>
+        <v>0.00142589062189067</v>
       </c>
       <c r="D33">
-        <v>0.0009042231917724668</v>
+        <v>0.00834167775944805</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.0004048978271755833</v>
+        <v>8.74754072357773e-05</v>
       </c>
       <c r="B34">
-        <v>0.0001686401076672135</v>
+        <v>-0.001369532827073806</v>
       </c>
       <c r="C34">
-        <v>0.000641155546683953</v>
+        <v>0.001544483641545361</v>
       </c>
       <c r="D34">
-        <v>0.002355934711592432</v>
+        <v>0.9033348607022488</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.0005409192668851184</v>
+        <v>-5.427144977320965e-05</v>
       </c>
       <c r="B35">
-        <v>-0.0003146463974295625</v>
+        <v>-0.0003954525570373906</v>
       </c>
       <c r="C35">
-        <v>0.001396484931199799</v>
+        <v>0.0002869096574909712</v>
       </c>
       <c r="D35">
-        <v>0.2135696410437246</v>
+        <v>0.7477960754828186</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1134,21 +1134,21 @@
         </is>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-3.321457608881364E-05</v>
+        <v>0.001044763097231429</v>
       </c>
       <c r="B36">
-        <v>-0.001183202514857051</v>
+        <v>0.0004803023933796243</v>
       </c>
       <c r="C36">
-        <v>0.001116773362679424</v>
+        <v>0.001609223801083234</v>
       </c>
       <c r="D36">
-        <v>0.954573658510292</v>
+        <v>0.0006799709974927931</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1156,69 +1156,69 @@
         </is>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.001285507291882449</v>
+        <v>-0.0003516540280357961</v>
       </c>
       <c r="B37">
-        <v>-0.002012722223381975</v>
+        <v>-0.0005990222075315622</v>
       </c>
       <c r="C37">
-        <v>-0.0005582923603829235</v>
+        <v>-0.0001042858485400301</v>
       </c>
       <c r="D37">
-        <v>0.0006256160211556787</v>
+        <v>0.007536174994092007</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0004443163162753344</v>
+        <v>-0.001135888402697024</v>
       </c>
       <c r="B38">
-        <v>-0.0005163842909854965</v>
+        <v>-0.001361819946976231</v>
       </c>
       <c r="C38">
-        <v>0.001405016923536165</v>
+        <v>-0.000909956858417817</v>
       </c>
       <c r="D38">
-        <v>0.3623303723611314</v>
+        <v>8.832648489356865e-10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.0008789324650352487</v>
+        <v>-0.000337756546779348</v>
       </c>
       <c r="B39">
-        <v>-0.001625258589400129</v>
+        <v>-0.0005400043910399413</v>
       </c>
       <c r="C39">
-        <v>-0.0001326063406703689</v>
+        <v>-0.0001355087025187546</v>
       </c>
       <c r="D39">
-        <v>0.02115216984726248</v>
+        <v>0.00260817235642735</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F39">
@@ -1227,20 +1227,20 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.003552027177152831</v>
+        <v>0.0003219950625386127</v>
       </c>
       <c r="B40">
-        <v>-0.006378343233672487</v>
+        <v>-0.0001019463692096787</v>
       </c>
       <c r="C40">
-        <v>-0.0007257111206331757</v>
+        <v>0.000745936494286904</v>
       </c>
       <c r="D40">
-        <v>0.01395137138858909</v>
+        <v>0.1274701351657327</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F40">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.001407373258230962</v>
+        <v>-0.0004472797934183617</v>
       </c>
       <c r="B41">
-        <v>0.0007369998897265555</v>
+        <v>-0.0005978611138693359</v>
       </c>
       <c r="C41">
-        <v>0.002077746626735369</v>
+        <v>-0.0002966984729673876</v>
       </c>
       <c r="D41">
-        <v>4.842237269805603E-05</v>
+        <v>8.51523881028868e-06</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1266,109 +1266,109 @@
         </is>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0004344919957571547</v>
+        <v>0.0003997903975652299</v>
       </c>
       <c r="B42">
-        <v>0.0002036312225108291</v>
+        <v>0.000184069242795624</v>
       </c>
       <c r="C42">
-        <v>0.0006653527690034803</v>
+        <v>0.0006155115523348359</v>
       </c>
       <c r="D42">
-        <v>0.0002581860688690437</v>
+        <v>0.00233281628850313</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.0005673272939321295</v>
+        <v>0.0008112915374308155</v>
       </c>
       <c r="B43">
-        <v>-0.0006602698719627578</v>
+        <v>-1.272383803192453e-05</v>
       </c>
       <c r="C43">
-        <v>0.001794924459827017</v>
+        <v>0.001635306912893555</v>
       </c>
       <c r="D43">
-        <v>0.3636147492611165</v>
+        <v>0.05293592865878614</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.002081939144153384</v>
+        <v>0.0005851832452627408</v>
       </c>
       <c r="B44">
-        <v>-0.00340177827946364</v>
+        <v>0.0002027048385524622</v>
       </c>
       <c r="C44">
-        <v>-0.0007621000088431275</v>
+        <v>0.0009676616519730193</v>
       </c>
       <c r="D44">
-        <v>0.002108649532805464</v>
+        <v>0.007148968950418501</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.001645748445604366</v>
+        <v>0.001229136810067599</v>
       </c>
       <c r="B45">
-        <v>-0.001953534774966767</v>
+        <v>0.001005963548688307</v>
       </c>
       <c r="C45">
-        <v>-0.001337962116241964</v>
+        <v>0.001452310071446891</v>
       </c>
       <c r="D45">
-        <v>9.690077798751278E-22</v>
+        <v>5.58943470924336e-07</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.0004266582893818047</v>
+        <v>0.0008464997415176274</v>
       </c>
       <c r="B46">
-        <v>-0.0002909783709213059</v>
+        <v>0.0007491504279320927</v>
       </c>
       <c r="C46">
-        <v>0.001144294949684915</v>
+        <v>0.000943849055103162</v>
       </c>
       <c r="D46">
-        <v>0.2365867249122627</v>
+        <v>1.051143720022218e-08</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1376,223 +1376,223 @@
         </is>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.000925781693166832</v>
+        <v>0.0005146586184704242</v>
       </c>
       <c r="B47">
-        <v>0.0002336553964856062</v>
+        <v>0.0002242335625430448</v>
       </c>
       <c r="C47">
-        <v>0.001617907989848058</v>
+        <v>0.0008050836743978035</v>
       </c>
       <c r="D47">
-        <v>0.01002761756667845</v>
+        <v>0.001033840532999468</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>6.069877845698048E-05</v>
+        <v>-0.0007972107816085023</v>
       </c>
       <c r="B48">
-        <v>-0.0007583018859736011</v>
+        <v>-0.001090078660208083</v>
       </c>
       <c r="C48">
-        <v>0.0008796994428875621</v>
+        <v>-0.000504342903008922</v>
       </c>
       <c r="D48">
-        <v>0.8816842856295846</v>
+        <v>5.404885544746184e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.001158036334502107</v>
+        <v>-0.0002397544359852087</v>
       </c>
       <c r="B49">
-        <v>0.0002647596180221959</v>
+        <v>-0.0007442740950739545</v>
       </c>
       <c r="C49">
-        <v>0.002051313050982018</v>
+        <v>0.0002647652231035372</v>
       </c>
       <c r="D49">
-        <v>0.01236354790854546</v>
+        <v>0.3233163695586931</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.000693286583919214</v>
+        <v>-0.0003612415423818447</v>
       </c>
       <c r="B50">
-        <v>0.0001356934090952184</v>
+        <v>-0.0010592791262159</v>
       </c>
       <c r="C50">
-        <v>0.00125087975874321</v>
+        <v>0.0003367960414522111</v>
       </c>
       <c r="D50">
-        <v>0.01610564197406561</v>
+        <v>0.2837968297998597</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>8.516013086668253E-05</v>
+        <v>-0.0003071745235852396</v>
       </c>
       <c r="B51">
-        <v>-0.0007437552634366849</v>
+        <v>-0.0006929631587835597</v>
       </c>
       <c r="C51">
-        <v>0.00091407552517005</v>
+        <v>7.861411161308039e-05</v>
       </c>
       <c r="D51">
-        <v>0.836564512440969</v>
+        <v>0.1091066402824755</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.0004655474464113145</v>
+        <v>-0.0006570449771497866</v>
       </c>
       <c r="B52">
-        <v>-0.0004605820875801883</v>
+        <v>-0.001074436395722887</v>
       </c>
       <c r="C52">
-        <v>0.001391676980402817</v>
+        <v>-0.0002396535585766861</v>
       </c>
       <c r="D52">
-        <v>0.3157565777690053</v>
+        <v>0.004735155530591541</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.0004457835957258367</v>
+        <v>0.0003709701012215579</v>
       </c>
       <c r="B53">
-        <v>-7.151778268267464E-05</v>
+        <v>-9.727029216247298e-05</v>
       </c>
       <c r="C53">
-        <v>0.000963084974134348</v>
+        <v>0.0008392104946055886</v>
       </c>
       <c r="D53">
-        <v>0.08925464993538909</v>
+        <v>0.1150666692879026</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0008365388887294561</v>
+        <v>0.0009121802353482235</v>
       </c>
       <c r="B54">
-        <v>0.0003059294239415246</v>
+        <v>0.0006148689317302593</v>
       </c>
       <c r="C54">
-        <v>0.001367148353517388</v>
+        <v>0.001209491538966188</v>
       </c>
       <c r="D54">
-        <v>0.002793640189118287</v>
+        <v>1.513962017442093e-06</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0005836851453538973</v>
+        <v>0.00072203001305573</v>
       </c>
       <c r="B55">
-        <v>0.0003013725025889942</v>
+        <v>0.000492124137146929</v>
       </c>
       <c r="C55">
-        <v>0.0008659977881188006</v>
+        <v>0.000951935888964531</v>
       </c>
       <c r="D55">
-        <v>0.0001926988218905933</v>
+        <v>1.055085233293156e-06</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.0009831474564451546</v>
+        <v>-0.0003409952373265385</v>
       </c>
       <c r="B56">
-        <v>-0.001283808141826092</v>
+        <v>-0.0008357939133173385</v>
       </c>
       <c r="C56">
-        <v>-0.0006824867710642172</v>
+        <v>0.0001538034386642614</v>
       </c>
       <c r="D56">
-        <v>8.488248386380881E-06</v>
+        <v>0.1641597539416684</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F56">
@@ -1601,20 +1601,20 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.0001685662080685904</v>
+        <v>-8.269855237280392e-05</v>
       </c>
       <c r="B57">
-        <v>-0.0006166087495524054</v>
+        <v>-0.0005881530164839218</v>
       </c>
       <c r="C57">
-        <v>0.0002794763334152246</v>
+        <v>0.0004227559117383139</v>
       </c>
       <c r="D57">
-        <v>0.4309716165835488</v>
+        <v>0.7341844660479799</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F57">
@@ -1623,20 +1623,20 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.0004474934698906256</v>
+        <v>-0.0001027803718739452</v>
       </c>
       <c r="B58">
-        <v>-0.000844497088491585</v>
+        <v>-0.0005961189741312105</v>
       </c>
       <c r="C58">
-        <v>-5.048985128966633E-05</v>
+        <v>0.0003905582303833201</v>
       </c>
       <c r="D58">
-        <v>0.03004094872446735</v>
+        <v>0.6657986210908946</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F58">
@@ -1645,20 +1645,20 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.0003972106899826244</v>
+        <v>-0.0009924567116657581</v>
       </c>
       <c r="B59">
-        <v>-0.001100071478598079</v>
+        <v>-0.001496331818195151</v>
       </c>
       <c r="C59">
-        <v>0.0003056500986328301</v>
+        <v>-0.000488581605136365</v>
       </c>
       <c r="D59">
-        <v>0.2438063506162098</v>
+        <v>0.0006621640437655044</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F59">
@@ -1667,20 +1667,20 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.0001524530111896972</v>
+        <v>-1.524386205047356e-05</v>
       </c>
       <c r="B60">
-        <v>-0.0005292579022118912</v>
+        <v>-0.0005180555633993795</v>
       </c>
       <c r="C60">
-        <v>0.0002243518798324968</v>
+        <v>0.0004875678392984323</v>
       </c>
       <c r="D60">
-        <v>0.3979388451590934</v>
+        <v>0.9497451796611112</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F60">
@@ -1689,20 +1689,20 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.000268888535958183</v>
+        <v>-0.0005720651337761321</v>
       </c>
       <c r="B61">
-        <v>-0.0005957780787055797</v>
+        <v>-0.001223759601417711</v>
       </c>
       <c r="C61">
-        <v>5.800100678921379E-05</v>
+        <v>7.962933386544658e-05</v>
       </c>
       <c r="D61">
-        <v>0.09895067707914551</v>
+        <v>0.08146989766437884</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F61">
@@ -1711,20 +1711,20 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.001011967991055144</v>
+        <v>-0.0002756468176312821</v>
       </c>
       <c r="B62">
-        <v>-0.001428986937050718</v>
+        <v>-0.0007645472002801739</v>
       </c>
       <c r="C62">
-        <v>-0.0005949490450595704</v>
+        <v>0.0002132535650176097</v>
       </c>
       <c r="D62">
-        <v>0.0001589141390938725</v>
+        <v>0.2505785648281488</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F62">
@@ -1733,104 +1733,104 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.0003834803277717482</v>
+        <v>-0.00031338923833881</v>
       </c>
       <c r="B63">
-        <v>-0.0003382756950908499</v>
+        <v>-0.0007989090851590783</v>
       </c>
       <c r="C63">
-        <v>0.001105236350634346</v>
+        <v>0.0001721306084814582</v>
       </c>
       <c r="D63">
-        <v>0.2958139078894662</v>
+        <v>0.1910280544861745</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.001520356575480694</v>
+        <v>-0.0004064578993716813</v>
       </c>
       <c r="B64">
-        <v>0.001063313656293569</v>
+        <v>-0.0008905818811083333</v>
       </c>
       <c r="C64">
-        <v>0.001977399494667819</v>
+        <v>7.766608236497069e-05</v>
       </c>
       <c r="D64">
-        <v>5.636050495834044E-10</v>
+        <v>0.09442778384571755</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.0003241794086914406</v>
+        <v>0.0004968826701081092</v>
       </c>
       <c r="B65">
-        <v>-5.1813368666914E-05</v>
+        <v>-3.895610717480021e-06</v>
       </c>
       <c r="C65">
-        <v>0.0007001721860497951</v>
+        <v>0.0009976609509336986</v>
       </c>
       <c r="D65">
-        <v>0.09060125620046869</v>
+        <v>0.05161436021555976</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.00327491462588064</v>
+        <v>9.294314534357503e-05</v>
       </c>
       <c r="B66">
-        <v>0.003107659443692329</v>
+        <v>-0.0004026182896333186</v>
       </c>
       <c r="C66">
-        <v>0.00344216980806895</v>
+        <v>0.0005885045803204687</v>
       </c>
       <c r="D66">
-        <v>6.697155200348485E-88</v>
+        <v>0.6972492668353657</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.0003696153312774824</v>
+        <v>0.0001179006750884518</v>
       </c>
       <c r="B67">
-        <v>-0.0008134872319255885</v>
+        <v>-0.0003862391407782393</v>
       </c>
       <c r="C67">
-        <v>7.425656937062376E-05</v>
+        <v>0.0006220404909551428</v>
       </c>
       <c r="D67">
-        <v>0.09693674075448157</v>
+        <v>0.6280349447260296</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1838,263 +1838,263 @@
         </is>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-5.113793102244308E-05</v>
+        <v>-0.0004320677959311032</v>
       </c>
       <c r="B68">
-        <v>-0.0004878917113214907</v>
+        <v>-0.0005785507438512894</v>
       </c>
       <c r="C68">
-        <v>0.0003856158492766045</v>
+        <v>-0.0002855848480109169</v>
       </c>
       <c r="D68">
-        <v>0.807843010264385</v>
+        <v>4.36775194209811e-06</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-9.212228064695187E-05</v>
+        <v>0.001446585727067651</v>
       </c>
       <c r="B69">
-        <v>-0.0005282033594250873</v>
+        <v>0.001352260701492018</v>
       </c>
       <c r="C69">
-        <v>0.0003439587981311835</v>
+        <v>0.001540910752643283</v>
       </c>
       <c r="D69">
-        <v>0.661438482364483</v>
+        <v>2.832232340154985e-19</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.0009155725026106949</v>
+        <v>6.204876402736367e-05</v>
       </c>
       <c r="B70">
-        <v>-0.001357128239283228</v>
+        <v>-7.522985581293532e-05</v>
       </c>
       <c r="C70">
-        <v>-0.0004740167659381615</v>
+        <v>0.0001993273838676627</v>
       </c>
       <c r="D70">
-        <v>0.0004129874491517531</v>
+        <v>0.3579213276812094</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-7.595911632446308E-05</v>
+        <v>-0.000432661005418232</v>
       </c>
       <c r="B71">
-        <v>-0.000529043634393341</v>
+        <v>-0.0005321146629537969</v>
       </c>
       <c r="C71">
-        <v>0.0003771254017444149</v>
+        <v>-0.0003332073478826671</v>
       </c>
       <c r="D71">
-        <v>0.7279061714349994</v>
+        <v>1.085622289986976e-08</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.0004594456369714748</v>
+        <v>0.0001793189131924068</v>
       </c>
       <c r="B72">
-        <v>-0.0010412105806699</v>
+        <v>7.640683642365546e-05</v>
       </c>
       <c r="C72">
-        <v>0.0001223193067269507</v>
+        <v>0.000282230989961158</v>
       </c>
       <c r="D72">
-        <v>0.1139879196343191</v>
+        <v>0.001591959289765939</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.0002692013528442675</v>
+        <v>0.0008347729979754727</v>
       </c>
       <c r="B73">
-        <v>-0.0006909046045723553</v>
+        <v>0.000715528313669955</v>
       </c>
       <c r="C73">
-        <v>0.0001525018988838203</v>
+        <v>0.0009540176822809903</v>
       </c>
       <c r="D73">
-        <v>0.1957147446209349</v>
+        <v>1.911864494346708e-12</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-0.0003344942889655334</v>
+        <v>0.0009712486263423557</v>
       </c>
       <c r="B74">
-        <v>-0.0007617931813325015</v>
+        <v>0.0007825614154327101</v>
       </c>
       <c r="C74">
-        <v>9.280460340143482E-05</v>
+        <v>0.001159935837252001</v>
       </c>
       <c r="D74">
-        <v>0.116968528971329</v>
+        <v>5.804477989468823e-10</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.0004083589271554332</v>
+        <v>-0.0002035408755934986</v>
       </c>
       <c r="B75">
-        <v>-0.000824802751152084</v>
+        <v>-0.0003615876515707701</v>
       </c>
       <c r="C75">
-        <v>8.084896841217663E-06</v>
+        <v>-4.549409961622711e-05</v>
       </c>
       <c r="D75">
-        <v>0.0541176907200852</v>
+        <v>0.01407198744505659</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0003901279948929321</v>
+        <v>0.0002106986118927816</v>
       </c>
       <c r="B76">
-        <v>-5.545603975810719E-05</v>
+        <v>-4.713550432895741e-05</v>
       </c>
       <c r="C76">
-        <v>0.0008357120295439714</v>
+        <v>0.0004685327281145205</v>
       </c>
       <c r="D76">
-        <v>0.08219254897429955</v>
+        <v>0.104004357454008</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-1.908548341268554E-05</v>
+        <v>0.000523719272014214</v>
       </c>
       <c r="B77">
-        <v>-0.0004453241310213897</v>
+        <v>0.0003172535429841171</v>
       </c>
       <c r="C77">
-        <v>0.0004071531641960186</v>
+        <v>0.0007301850010443109</v>
       </c>
       <c r="D77">
-        <v>0.9258402198442776</v>
+        <v>3.139174311530863e-05</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.172168897309343E-05</v>
+        <v>0.001067105568015819</v>
       </c>
       <c r="B78">
-        <v>-0.000436711590175606</v>
+        <v>0.0008420088704087154</v>
       </c>
       <c r="C78">
-        <v>0.0004601549681217929</v>
+        <v>0.001292202265622923</v>
       </c>
       <c r="D78">
-        <v>0.9566627980276547</v>
+        <v>2.484121771360314e-09</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-0.0004320677959311032</v>
+        <v>0.001064238868249217</v>
       </c>
       <c r="B79">
-        <v>-0.0005785507438512894</v>
+        <v>0.0008021793998871719</v>
       </c>
       <c r="C79">
-        <v>-0.0002855848480109169</v>
+        <v>0.001326298336611263</v>
       </c>
       <c r="D79">
-        <v>4.36775194209811E-06</v>
+        <v>3.417642023422307e-08</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2102,21 +2102,21 @@
         </is>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.001446585727067651</v>
+        <v>0.0008661099552064175</v>
       </c>
       <c r="B80">
-        <v>0.001352260701492018</v>
+        <v>0.0007522033645481782</v>
       </c>
       <c r="C80">
-        <v>0.001540910752643283</v>
+        <v>0.0009800165458646569</v>
       </c>
       <c r="D80">
-        <v>2.832232340154985E-19</v>
+        <v>3.872681003796478e-13</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2124,21 +2124,21 @@
         </is>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>6.204876402736367E-05</v>
+        <v>0.001624672279843993</v>
       </c>
       <c r="B81">
-        <v>-7.522985581293532E-05</v>
+        <v>0.00130065395249375</v>
       </c>
       <c r="C81">
-        <v>0.0001993273838676627</v>
+        <v>0.001948690607194236</v>
       </c>
       <c r="D81">
-        <v>0.3579213276812094</v>
+        <v>9.262566912669005e-10</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2146,21 +2146,21 @@
         </is>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.000432661005418232</v>
+        <v>-0.0008132576636263297</v>
       </c>
       <c r="B82">
-        <v>-0.0005321146629537969</v>
+        <v>-0.0009590211933323729</v>
       </c>
       <c r="C82">
-        <v>-0.0003332073478826671</v>
+        <v>-0.0006674941339202866</v>
       </c>
       <c r="D82">
-        <v>1.085622289986976E-08</v>
+        <v>1.351209474518965e-10</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.0001793189131924068</v>
+        <v>0.002023166282565704</v>
       </c>
       <c r="B83">
-        <v>7.640683642365546E-05</v>
+        <v>0.001873840179444569</v>
       </c>
       <c r="C83">
-        <v>0.000282230989961158</v>
+        <v>0.002172492385686839</v>
       </c>
       <c r="D83">
-        <v>0.001591959289765939</v>
+        <v>3.611018462708109e-18</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2190,21 +2190,21 @@
         </is>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.0008347729979754727</v>
+        <v>-0.0006130883667866781</v>
       </c>
       <c r="B84">
-        <v>0.000715528313669955</v>
+        <v>-0.0008320646478051535</v>
       </c>
       <c r="C84">
-        <v>0.0009540176822809903</v>
+        <v>-0.0003941120857682027</v>
       </c>
       <c r="D84">
-        <v>1.911864494346708E-12</v>
+        <v>8.850538107626984e-06</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
         </is>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.0009712486263423557</v>
+        <v>0.0007715765304117936</v>
       </c>
       <c r="B85">
-        <v>0.0007825614154327101</v>
+        <v>0.000546790893502311</v>
       </c>
       <c r="C85">
-        <v>0.001159935837252001</v>
+        <v>0.0009963621673212764</v>
       </c>
       <c r="D85">
-        <v>5.804477989468823E-10</v>
+        <v>4.867179614364006e-07</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2234,21 +2234,21 @@
         </is>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.0002035408755934986</v>
+        <v>0.0007702316749338705</v>
       </c>
       <c r="B86">
-        <v>-0.0003615876515707701</v>
+        <v>0.0005207165638873739</v>
       </c>
       <c r="C86">
-        <v>-4.549409961622711E-05</v>
+        <v>0.001019746785980367</v>
       </c>
       <c r="D86">
-        <v>0.01407198744505659</v>
+        <v>2.309924316941351e-06</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2256,21 +2256,21 @@
         </is>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0002106986118927816</v>
+        <v>0.0006207154344096541</v>
       </c>
       <c r="B87">
-        <v>-4.713550432895741E-05</v>
+        <v>0.0005125478303518833</v>
       </c>
       <c r="C87">
-        <v>0.0004685327281145205</v>
+        <v>0.0007288830384674248</v>
       </c>
       <c r="D87">
-        <v>0.104004357454008</v>
+        <v>8.063426646274118e-11</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2278,21 +2278,21 @@
         </is>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.000523719272014214</v>
+        <v>0.002816203200235199</v>
       </c>
       <c r="B88">
-        <v>0.0003172535429841171</v>
+        <v>0.002716707870533328</v>
       </c>
       <c r="C88">
-        <v>0.0007301850010443109</v>
+        <v>0.002915698529937071</v>
       </c>
       <c r="D88">
-        <v>3.139174311530863E-05</v>
+        <v>8.431099548479275e-25</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2300,267 +2300,267 @@
         </is>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.001067105568015819</v>
+        <v>0.0005564023059471923</v>
       </c>
       <c r="B89">
-        <v>0.0008420088704087154</v>
+        <v>0.0001903302558828708</v>
       </c>
       <c r="C89">
-        <v>0.001292202265622923</v>
+        <v>0.0009224743560115137</v>
       </c>
       <c r="D89">
-        <v>2.484121771360314E-09</v>
+        <v>0.005699151520901035</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.001064238868249217</v>
+        <v>0.000740404775172123</v>
       </c>
       <c r="B90">
-        <v>0.0008021793998871719</v>
+        <v>0.0005602065948622333</v>
       </c>
       <c r="C90">
-        <v>0.001326298336611263</v>
+        <v>0.0009206029554820126</v>
       </c>
       <c r="D90">
-        <v>3.417642023422307E-08</v>
+        <v>4.364420099525987e-07</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.0008661099552064175</v>
+        <v>0.001397199922663317</v>
       </c>
       <c r="B91">
-        <v>0.0007522033645481782</v>
+        <v>0.001258712740868646</v>
       </c>
       <c r="C91">
-        <v>0.0009800165458646569</v>
+        <v>0.001535687104457988</v>
       </c>
       <c r="D91">
-        <v>3.872681003796478E-13</v>
+        <v>3.687958532871885e-12</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.001624672279843993</v>
+        <v>-7.771446997214841e-05</v>
       </c>
       <c r="B92">
-        <v>0.00130065395249375</v>
+        <v>-0.0002230845400002757</v>
       </c>
       <c r="C92">
-        <v>0.001948690607194236</v>
+        <v>6.765560005597893e-05</v>
       </c>
       <c r="D92">
-        <v>9.262566912669005E-10</v>
+        <v>0.2707675565982737</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.0008132576636263297</v>
+        <v>0.001734093048481502</v>
       </c>
       <c r="B93">
-        <v>-0.0009590211933323729</v>
+        <v>0.001666756806747697</v>
       </c>
       <c r="C93">
-        <v>-0.0006674941339202866</v>
+        <v>0.001801429290215306</v>
       </c>
       <c r="D93">
-        <v>1.351209474518965E-10</v>
+        <v>8.710994352366291e-18</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.002023166282565704</v>
+        <v>0.001060982914830947</v>
       </c>
       <c r="B94">
-        <v>0.001873840179444569</v>
+        <v>0.0009832875745735699</v>
       </c>
       <c r="C94">
-        <v>0.002172492385686839</v>
+        <v>0.001138678255088324</v>
       </c>
       <c r="D94">
-        <v>3.611018462708109E-18</v>
+        <v>5.809206869965239e-14</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F94">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.0006130883667866781</v>
+        <v>0.0002066286800851383</v>
       </c>
       <c r="B95">
-        <v>-0.0008320646478051535</v>
+        <v>9.602141106595423e-06</v>
       </c>
       <c r="C95">
-        <v>-0.0003941120857682027</v>
+        <v>0.0004036552190636812</v>
       </c>
       <c r="D95">
-        <v>8.850538107626984E-06</v>
+        <v>0.04110708014201946</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F95">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.0007715765304117936</v>
+        <v>0.0008154505261811722</v>
       </c>
       <c r="B96">
-        <v>0.000546790893502311</v>
+        <v>0.0005800398062297898</v>
       </c>
       <c r="C96">
-        <v>0.0009963621673212764</v>
+        <v>0.001050861246132555</v>
       </c>
       <c r="D96">
-        <v>4.867179614364006E-07</v>
+        <v>3.20525564257237e-06</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F96">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.0007702316749338705</v>
+        <v>0.001004226378085425</v>
       </c>
       <c r="B97">
-        <v>0.0005207165638873739</v>
+        <v>0.0004238460025456254</v>
       </c>
       <c r="C97">
-        <v>0.001019746785980367</v>
+        <v>0.001584606753625224</v>
       </c>
       <c r="D97">
-        <v>2.309924316941351E-06</v>
+        <v>0.002325637683408184</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F97">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.0006207154344096541</v>
+        <v>0.001654033134787062</v>
       </c>
       <c r="B98">
-        <v>0.0005125478303518833</v>
+        <v>0.000914868988332541</v>
       </c>
       <c r="C98">
-        <v>0.0007288830384674248</v>
+        <v>0.002393197281241584</v>
       </c>
       <c r="D98">
-        <v>8.063426646274118E-11</v>
+        <v>0.0002828807061353378</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F98">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.002816203200235199</v>
+        <v>0.001338806323643107</v>
       </c>
       <c r="B99">
-        <v>0.002716707870533328</v>
+        <v>0.001013452718056637</v>
       </c>
       <c r="C99">
-        <v>0.002915698529937071</v>
+        <v>0.001664159929229577</v>
       </c>
       <c r="D99">
-        <v>8.431099548479275E-25</v>
+        <v>4.287554157639888e-07</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F99">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0003928869341566941</v>
+        <v>0.001590237617939177</v>
       </c>
       <c r="B100">
-        <v>-7.173879611413459E-05</v>
+        <v>0.001232846314987782</v>
       </c>
       <c r="C100">
-        <v>0.0008575126644275227</v>
+        <v>0.001947628920890572</v>
       </c>
       <c r="D100">
-        <v>0.0959140476340278</v>
+        <v>1.719996330165231e-06</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F100">
@@ -2569,20 +2569,20 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-6.732691605678116E-05</v>
+        <v>0.000650935328072256</v>
       </c>
       <c r="B101">
-        <v>-0.000524899192064821</v>
+        <v>0.0002964547687034759</v>
       </c>
       <c r="C101">
-        <v>0.0003902453599512586</v>
+        <v>0.001005415887441036</v>
       </c>
       <c r="D101">
-        <v>0.7694663779353548</v>
+        <v>0.002173786820991752</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F101">
@@ -2591,20 +2591,20 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.000981028060119189</v>
+        <v>-0.0006793764395426497</v>
       </c>
       <c r="B102">
-        <v>-0.001473066668601171</v>
+        <v>-0.00123518958999546</v>
       </c>
       <c r="C102">
-        <v>-0.0004889894516372068</v>
+        <v>-0.0001235632890898396</v>
       </c>
       <c r="D102">
-        <v>0.0001852484554738734</v>
+        <v>0.02143198693457985</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F102">
@@ -2613,20 +2613,20 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>-0.000920121141590248</v>
+        <v>0.0002340340238054452</v>
       </c>
       <c r="B103">
-        <v>-0.001382780930346906</v>
+        <v>-0.000104511033999011</v>
       </c>
       <c r="C103">
-        <v>-0.0004574613528335898</v>
+        <v>0.0005725790816099015</v>
       </c>
       <c r="D103">
-        <v>0.0001915417636837882</v>
+        <v>0.1545110585618455</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F103">
@@ -2635,20 +2635,20 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.0002861741875533411</v>
+        <v>-0.001170800252670507</v>
       </c>
       <c r="B104">
-        <v>-0.0007350588940086022</v>
+        <v>-0.001444270182413205</v>
       </c>
       <c r="C104">
-        <v>0.00016271051890192</v>
+        <v>-0.0008973303229278088</v>
       </c>
       <c r="D104">
-        <v>0.2070684301681129</v>
+        <v>2.444990321010476e-06</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F104">
@@ -2657,416 +2657,416 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.0002146873888357645</v>
+        <v>-0.001599455641536526</v>
       </c>
       <c r="B105">
-        <v>-0.0008868393233722723</v>
+        <v>-0.003347079138642785</v>
       </c>
       <c r="C105">
-        <v>0.0004574645457007433</v>
+        <v>0.0001481678555697325</v>
       </c>
       <c r="D105">
-        <v>0.5252158916379486</v>
+        <v>0.07019266322418281</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>-0.0002886630944194222</v>
+        <v>-0.001520695185374335</v>
       </c>
       <c r="B106">
-        <v>-0.0007366811477962413</v>
+        <v>-0.002245491080448519</v>
       </c>
       <c r="C106">
-        <v>0.0001593549589573969</v>
+        <v>-0.0007958992903001518</v>
       </c>
       <c r="D106">
-        <v>0.2023380477221383</v>
+        <v>0.0004050445632017546</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F106">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>-0.001070517662604619</v>
+        <v>-0.00104880881654421</v>
       </c>
       <c r="B107">
-        <v>-0.001550370232506796</v>
+        <v>-0.002999318095480383</v>
       </c>
       <c r="C107">
-        <v>-0.0005906650927024416</v>
+        <v>0.0009017004623919629</v>
       </c>
       <c r="D107">
-        <v>3.684078094923531E-05</v>
+        <v>0.2711076557815971</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-5.825331590078058E-05</v>
+        <v>-0.0005870762985189509</v>
       </c>
       <c r="B108">
-        <v>-0.000885466577241099</v>
+        <v>-0.0009052873492432713</v>
       </c>
       <c r="C108">
-        <v>0.0007689599454395379</v>
+        <v>-0.0002688652477946306</v>
       </c>
       <c r="D108">
-        <v>0.8884191480260216</v>
+        <v>0.0007376796367760532</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>-8.750041984546518E-05</v>
+        <v>-0.0005975131427561293</v>
       </c>
       <c r="B109">
-        <v>-0.001076277682813128</v>
+        <v>-0.0008289461530683137</v>
       </c>
       <c r="C109">
-        <v>0.0009012768431221976</v>
+        <v>-0.000366080132443945</v>
       </c>
       <c r="D109">
-        <v>0.8600558098342123</v>
+        <v>1.163724084404402e-05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F109">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.001711395046808822</v>
+        <v>0.0002247618721294316</v>
       </c>
       <c r="B110">
-        <v>-0.002732196979761122</v>
+        <v>-8.320634031151774e-06</v>
       </c>
       <c r="C110">
-        <v>-0.0006905931138565218</v>
+        <v>0.000457844378290015</v>
       </c>
       <c r="D110">
-        <v>0.001393315640794515</v>
+        <v>0.05818843901876646</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F110">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.0003475414569738337</v>
+        <v>0.001405255777758534</v>
       </c>
       <c r="B111">
-        <v>-0.0007590040944110955</v>
+        <v>0.0003894920491718274</v>
       </c>
       <c r="C111">
-        <v>6.39211804634281E-05</v>
+        <v>0.00242101950634524</v>
       </c>
       <c r="D111">
-        <v>0.09627906660572413</v>
+        <v>0.009753749169245155</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F111">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>-0.0007560103524708983</v>
+        <v>-0.001722746235621315</v>
       </c>
       <c r="B112">
-        <v>-0.00148890692308978</v>
+        <v>-0.001901074298450197</v>
       </c>
       <c r="C112">
-        <v>-2.311378185201613E-05</v>
+        <v>-0.001544418172792433</v>
       </c>
       <c r="D112">
-        <v>0.04341415481457549</v>
+        <v>1.975252753626048e-06</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="F112">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.001616183806708545</v>
+        <v>-0.002937032805807503</v>
       </c>
       <c r="B113">
-        <v>-0.003559496453857237</v>
+        <v>-0.003703526922515969</v>
       </c>
       <c r="C113">
-        <v>0.0003271288404401466</v>
+        <v>-0.002170538689099038</v>
       </c>
       <c r="D113">
-        <v>0.1013840873246687</v>
+        <v>0.0001837992568576327</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TCA</t>
         </is>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2.077799191465279E-05</v>
+        <v>-0.0009932903338801991</v>
       </c>
       <c r="B114">
-        <v>-0.0004684232364140607</v>
+        <v>-0.001531238145058801</v>
       </c>
       <c r="C114">
-        <v>0.0005099792202433662</v>
+        <v>-0.0004553425227015968</v>
       </c>
       <c r="D114">
-        <v>0.9325579705483402</v>
+        <v>0.0004371400367302959</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.0007212439862509608</v>
+        <v>-0.002206150501298481</v>
       </c>
       <c r="B115">
-        <v>0.0002183579117408178</v>
+        <v>-0.002452746863395035</v>
       </c>
       <c r="C115">
-        <v>0.001224130060761104</v>
+        <v>-0.001959554139201927</v>
       </c>
       <c r="D115">
-        <v>0.005692097689737234</v>
+        <v>7.391515960414095e-29</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F115">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.0005626705636882708</v>
+        <v>-0.002110142315234029</v>
       </c>
       <c r="B116">
-        <v>-0.001110933123655623</v>
+        <v>-0.003501542521656069</v>
       </c>
       <c r="C116">
-        <v>-1.440800372091826E-05</v>
+        <v>-0.0007187421088119884</v>
       </c>
       <c r="D116">
-        <v>0.0444570352704983</v>
+        <v>0.003436242334726526</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F116">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.0003395483806747566</v>
+        <v>-4.939175928798584e-05</v>
       </c>
       <c r="B117">
-        <v>-0.0008598311490719437</v>
+        <v>-0.0002827635355518652</v>
       </c>
       <c r="C117">
-        <v>0.0001807343877224304</v>
+        <v>0.0001839800169758935</v>
       </c>
       <c r="D117">
-        <v>0.1966570662093154</v>
+        <v>0.674561072958233</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F117">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.000496789250999103</v>
+        <v>0.002453293374142377</v>
       </c>
       <c r="B118">
-        <v>1.353820121100527E-05</v>
+        <v>0.002199108476637004</v>
       </c>
       <c r="C118">
-        <v>0.0009800403007872006</v>
+        <v>0.00270747827164775</v>
       </c>
       <c r="D118">
-        <v>0.04411046297867435</v>
+        <v>6.510661253808298e-31</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F118">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0006599241358248569</v>
+        <v>1.489288558574421e-05</v>
       </c>
       <c r="B119">
-        <v>0.0001538693684863269</v>
+        <v>-0.0002893971233568437</v>
       </c>
       <c r="C119">
-        <v>0.001165978903163387</v>
+        <v>0.0003191828945283321</v>
       </c>
       <c r="D119">
-        <v>0.01147600743507776</v>
+        <v>0.922602977413587</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F119">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.0006811804113020837</v>
+        <v>-0.0009909264150811767</v>
       </c>
       <c r="B120">
-        <v>0.0001466682828010894</v>
+        <v>-0.001482842207540147</v>
       </c>
       <c r="C120">
-        <v>0.001215692539803078</v>
+        <v>-0.0004990106226222063</v>
       </c>
       <c r="D120">
-        <v>0.01338738267588828</v>
+        <v>0.005015014480315912</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="F120">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.001536177526635888</v>
+        <v>-0.0001260336965906225</v>
       </c>
       <c r="B121">
-        <v>-0.002068569081291655</v>
+        <v>-0.0006500378921166035</v>
       </c>
       <c r="C121">
-        <v>-0.001003785971980122</v>
+        <v>0.0003979704989353586</v>
       </c>
       <c r="D121">
-        <v>3.060405519054296E-07</v>
+        <v>0.540821641704509</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="F121">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.004825274439226175</v>
+        <v>-0.0003137203418841733</v>
       </c>
       <c r="B122">
-        <v>-0.00537397562005555</v>
+        <v>-0.0007913365636712196</v>
       </c>
       <c r="C122">
-        <v>-0.004276573258396799</v>
+        <v>0.000163895879902873</v>
       </c>
       <c r="D122">
-        <v>3.770326521657528E-25</v>
+        <v>0.1422648573192962</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="F122">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.004051476094381554</v>
+        <v>0.004934404529782115</v>
       </c>
       <c r="B123">
-        <v>0.00313981334954673</v>
+        <v>-0.002504857387734962</v>
       </c>
       <c r="C123">
-        <v>0.004963138839216378</v>
+        <v>0.01237366644729919</v>
       </c>
       <c r="D123">
-        <v>1.22081309050478E-14</v>
+        <v>0.1489048158959849</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F123">
@@ -3075,20 +3075,20 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.001083239670127501</v>
+        <v>0.01080378437981856</v>
       </c>
       <c r="B124">
-        <v>-0.001809282966434357</v>
+        <v>0.007781939357643109</v>
       </c>
       <c r="C124">
-        <v>-0.0003571963738206441</v>
+        <v>0.01382562940199402</v>
       </c>
       <c r="D124">
-        <v>0.003775673578492665</v>
+        <v>0.0002558924417497273</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F124">
@@ -3097,20 +3097,20 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0003641565352843077</v>
+        <v>-0.007781806890631899</v>
       </c>
       <c r="B125">
-        <v>-0.002578419372212452</v>
+        <v>-0.01265781590602116</v>
       </c>
       <c r="C125">
-        <v>0.003306732442781067</v>
+        <v>-0.002905797875242634</v>
       </c>
       <c r="D125">
-        <v>0.8068556107345863</v>
+        <v>0.009332091164731281</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F125">
@@ -3119,20 +3119,20 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.0006725148477670741</v>
+        <v>0.002734792337495639</v>
       </c>
       <c r="B126">
-        <v>-0.003076356605932393</v>
+        <v>-0.005494557555694297</v>
       </c>
       <c r="C126">
-        <v>0.001731326910398245</v>
+        <v>0.01096414223068557</v>
       </c>
       <c r="D126">
-        <v>0.5806652990180443</v>
+        <v>0.4319752780648581</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F126">
@@ -3141,20 +3141,20 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.0006992497226483257</v>
+        <v>-0.0001281362786234956</v>
       </c>
       <c r="B127">
-        <v>-0.001690682511257084</v>
+        <v>-0.007619363859399043</v>
       </c>
       <c r="C127">
-        <v>0.003089181956553735</v>
+        <v>0.007363091302152051</v>
       </c>
       <c r="D127">
-        <v>0.5634788552782348</v>
+        <v>0.9666307439950256</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="F127">
@@ -3163,529 +3163,23 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.0006118811704560783</v>
+        <v>4.603823670035193e-05</v>
       </c>
       <c r="B128">
-        <v>-0.001306095007699077</v>
+        <v>-0.0004928072204791102</v>
       </c>
       <c r="C128">
-        <v>8.233266678692056E-05</v>
+        <v>0.000584883693879814</v>
       </c>
       <c r="D128">
-        <v>0.08352495259656111</v>
+        <v>0.8510344934323707</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>-0.001187991206148352</v>
-      </c>
-      <c r="B129">
-        <v>-0.002478861043108722</v>
-      </c>
-      <c r="C129">
-        <v>0.000102878630812017</v>
-      </c>
-      <c r="D129">
-        <v>0.07092465039682612</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>0.002361322957748024</v>
-      </c>
-      <c r="B130">
-        <v>0.00161367550677191</v>
-      </c>
-      <c r="C130">
-        <v>0.003108970408724139</v>
-      </c>
-      <c r="D130">
-        <v>6.396291920557072E-09</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>0.0002341325110897687</v>
-      </c>
-      <c r="B131">
-        <v>-0.000475696833361701</v>
-      </c>
-      <c r="C131">
-        <v>0.0009439618555412383</v>
-      </c>
-      <c r="D131">
-        <v>0.5149624008761756</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>0.001167373588072512</v>
-      </c>
-      <c r="B132">
-        <v>-0.0003653044392925903</v>
-      </c>
-      <c r="C132">
-        <v>0.002700051615437614</v>
-      </c>
-      <c r="D132">
-        <v>0.1341761250659852</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>0.003500054208877431</v>
-      </c>
-      <c r="B133">
-        <v>-0.0006215586453949314</v>
-      </c>
-      <c r="C133">
-        <v>0.007621667063149793</v>
-      </c>
-      <c r="D133">
-        <v>0.09529632094931695</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>0.0008717453022465731</v>
-      </c>
-      <c r="B134">
-        <v>-0.000713332415498678</v>
-      </c>
-      <c r="C134">
-        <v>0.002456823019991824</v>
-      </c>
-      <c r="D134">
-        <v>0.2783789008843409</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>-0.002277164185783065</v>
-      </c>
-      <c r="B135">
-        <v>-0.002976485454596839</v>
-      </c>
-      <c r="C135">
-        <v>-0.00157784291696929</v>
-      </c>
-      <c r="D135">
-        <v>2.491368487990425E-09</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>-0.00157171174092802</v>
-      </c>
-      <c r="B136">
-        <v>-0.002725029089965304</v>
-      </c>
-      <c r="C136">
-        <v>-0.0004183943918907368</v>
-      </c>
-      <c r="D136">
-        <v>0.007976531589833661</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>0.001594175149939283</v>
-      </c>
-      <c r="B137">
-        <v>0.0007951351576291303</v>
-      </c>
-      <c r="C137">
-        <v>0.002393215142249436</v>
-      </c>
-      <c r="D137">
-        <v>0.0001322637949473139</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>0.001435070150089784</v>
-      </c>
-      <c r="B138">
-        <v>-0.001089908923705832</v>
-      </c>
-      <c r="C138">
-        <v>0.0039600492238854</v>
-      </c>
-      <c r="D138">
-        <v>0.2627109334402535</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>0.001914585650173755</v>
-      </c>
-      <c r="B139">
-        <v>0.001022055240356244</v>
-      </c>
-      <c r="C139">
-        <v>0.002807116059991266</v>
-      </c>
-      <c r="D139">
-        <v>4.29590495763834E-05</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>0.0003308370853191957</v>
-      </c>
-      <c r="B140">
-        <v>-0.0004699746843614381</v>
-      </c>
-      <c r="C140">
-        <v>0.001131648854999829</v>
-      </c>
-      <c r="D140">
-        <v>0.4149995296450937</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>-0.09419344591720485</v>
-      </c>
-      <c r="B141">
-        <v>-0.1155637114524347</v>
-      </c>
-      <c r="C141">
-        <v>-0.07282318038197505</v>
-      </c>
-      <c r="D141">
-        <v>1.802285592863363E-14</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>-0.0009681844982133256</v>
-      </c>
-      <c r="B142">
-        <v>-0.0021235627563094</v>
-      </c>
-      <c r="C142">
-        <v>0.0001871937598827481</v>
-      </c>
-      <c r="D142">
-        <v>0.09467656420077794</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>0.0007620700557124447</v>
-      </c>
-      <c r="B143">
-        <v>-0.0002818894390982883</v>
-      </c>
-      <c r="C143">
-        <v>0.001806029550523178</v>
-      </c>
-      <c r="D143">
-        <v>0.1412952977425006</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>-0.002933949189409849</v>
-      </c>
-      <c r="B144">
-        <v>-0.003821544733937153</v>
-      </c>
-      <c r="C144">
-        <v>-0.002046353644882546</v>
-      </c>
-      <c r="D144">
-        <v>2.957527126841222E-06</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>-0.001501060906609265</v>
-      </c>
-      <c r="B145">
-        <v>-0.002170254365305985</v>
-      </c>
-      <c r="C145">
-        <v>-0.0008318674479125457</v>
-      </c>
-      <c r="D145">
-        <v>0.0002151529607643198</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>-0.001240890715953323</v>
-      </c>
-      <c r="B146">
-        <v>-0.002676491737032577</v>
-      </c>
-      <c r="C146">
-        <v>0.0001947103051259302</v>
-      </c>
-      <c r="D146">
-        <v>0.08557226362283527</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>0.0004031996119426948</v>
-      </c>
-      <c r="B147">
-        <v>-0.0002297314658469035</v>
-      </c>
-      <c r="C147">
-        <v>0.001036130689732293</v>
-      </c>
-      <c r="D147">
-        <v>0.1956631763631491</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>-0.0005870762985189509</v>
-      </c>
-      <c r="B148">
-        <v>-0.0009052873492432713</v>
-      </c>
-      <c r="C148">
-        <v>-0.0002688652477946306</v>
-      </c>
-      <c r="D148">
-        <v>0.0007376796367760532</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>-0.0005975131427561293</v>
-      </c>
-      <c r="B149">
-        <v>-0.0008289461530683137</v>
-      </c>
-      <c r="C149">
-        <v>-0.000366080132443945</v>
-      </c>
-      <c r="D149">
-        <v>1.163724084404402E-05</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>0.0002247618721294316</v>
-      </c>
-      <c r="B150">
-        <v>-8.320634031151774E-06</v>
-      </c>
-      <c r="C150">
-        <v>0.000457844378290015</v>
-      </c>
-      <c r="D150">
-        <v>0.05818843901876646</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>0.002288524109440211</v>
-      </c>
-      <c r="B151">
-        <v>0.001402314708956701</v>
-      </c>
-      <c r="C151">
-        <v>0.00317473350992372</v>
-      </c>
-      <c r="D151">
-        <v>5.094645330945186E-05</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>SOM</t>
-        </is>
-      </c>
-      <c r="F151">
         <v>2</v>
       </c>
     </row>
